--- a/MerchantNew/ExcelReader/Remit.xlsx
+++ b/MerchantNew/ExcelReader/Remit.xlsx
@@ -5,19 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="540" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="540" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="TransferMoney" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="AddBeneficiary" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="ValidateTransaction" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="AddRemitter" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
   <si>
     <t>TCID</t>
   </si>
@@ -37,13 +39,28 @@
     <t>AddBeneficiary</t>
   </si>
   <si>
-    <t>N</t>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Adding the Beneficary </t>
   </si>
   <si>
     <t>TransferMoney</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Transfering the amount</t>
+  </si>
+  <si>
+    <t>AddRemitter</t>
+  </si>
+  <si>
+    <t>Adding the Remitter </t>
+  </si>
+  <si>
+    <t>ValidateTransaction</t>
+  </si>
+  <si>
+    <t>Validating the transfer</t>
   </si>
   <si>
     <t>Actual Result</t>
@@ -71,6 +88,27 @@
   </si>
   <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>Account No</t>
+  </si>
+  <si>
+    <t>Bank Name</t>
+  </si>
+  <si>
+    <t>BenNumber</t>
+  </si>
+  <si>
+    <t>yn7Fa4</t>
+  </si>
+  <si>
+    <t>195905000005</t>
+  </si>
+  <si>
+    <t>icici</t>
+  </si>
+  <si>
+    <t>9322304397</t>
   </si>
 </sst>
 </file>
@@ -80,11 +118,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -103,15 +142,24 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Monospace"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Monospace"/>
-      <family val="0"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -169,20 +217,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -195,6 +255,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF2A00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -203,16 +323,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.49489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -239,17 +362,50 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -269,8 +425,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -283,7 +439,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -292,42 +448,42 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -340,17 +496,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.984693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -358,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -367,16 +525,25 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -387,22 +554,177 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/MerchantNew/ExcelReader/Remit.xlsx
+++ b/MerchantNew/ExcelReader/Remit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="540" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="540" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,13 +13,14 @@
     <sheet name="AddBeneficiary" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="ValidateTransaction" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="AddRemitter" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="DeleteRemitter" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
   <si>
     <t>TCID</t>
   </si>
@@ -42,19 +43,22 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Adding the Beneficary </t>
+    <t>Adding the Beneficary</t>
   </si>
   <si>
     <t>TransferMoney</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Transfering the amount</t>
   </si>
   <si>
     <t>AddRemitter</t>
   </si>
   <si>
-    <t>Adding the Remitter </t>
+    <t>Adding the Remitter</t>
   </si>
   <si>
     <t>ValidateTransaction</t>
@@ -63,6 +67,12 @@
     <t>Validating the transfer</t>
   </si>
   <si>
+    <t>DeleteRemitter</t>
+  </si>
+  <si>
+    <t>Deleting the Remitter</t>
+  </si>
+  <si>
     <t>Actual Result</t>
   </si>
   <si>
@@ -109,6 +119,21 @@
   </si>
   <si>
     <t>9322304397</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Otp</t>
+  </si>
+  <si>
+    <t>7101000600</t>
+  </si>
+  <si>
+    <t>Ajin</t>
+  </si>
+  <si>
+    <t>4516</t>
   </si>
 </sst>
 </file>
@@ -217,7 +242,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -238,11 +263,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -323,18 +356,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6836734693878"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.49489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0714285714286"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -373,39 +406,50 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
+      <c r="A5" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -439,7 +483,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -448,16 +492,16 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -468,16 +512,16 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -496,19 +540,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4744897959184"/>
-    <col collapsed="false" hidden="false" max="8" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.984693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.984693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -525,25 +569,22 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -554,25 +595,22 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -616,16 +654,16 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -636,16 +674,16 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -664,10 +702,91 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -680,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -689,17 +808,15 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -709,17 +826,15 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="H2" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/MerchantNew/ExcelReader/Remit.xlsx
+++ b/MerchantNew/ExcelReader/Remit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="36">
   <si>
     <t>TCID</t>
   </si>
@@ -49,9 +49,6 @@
     <t>TransferMoney</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Transfering the amount</t>
   </si>
   <si>
@@ -91,7 +88,7 @@
     <t>9819042543</t>
   </si>
   <si>
-    <t>12345</t>
+    <t>1234567</t>
   </si>
   <si>
     <t>9967903705</t>
@@ -109,9 +106,6 @@
     <t>BenNumber</t>
   </si>
   <si>
-    <t>yn7Fa4</t>
-  </si>
-  <si>
     <t>195905000005</t>
   </si>
   <si>
@@ -130,7 +124,7 @@
     <t>7101000600</t>
   </si>
   <si>
-    <t>Ajin</t>
+    <t>Ajinky</t>
   </si>
   <si>
     <t>4516</t>
@@ -359,7 +353,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -406,49 +400,49 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -470,7 +464,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="B2:B6 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -483,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -492,16 +486,16 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -512,16 +506,16 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -543,7 +537,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="B2:B6 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -560,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -569,22 +563,22 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="H1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -595,22 +589,22 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -632,7 +626,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="B2:B6 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -645,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -654,16 +648,16 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -674,16 +668,16 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -705,7 +699,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="B2:B6 H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -720,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -729,19 +723,19 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -752,19 +746,19 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -786,7 +780,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="B2:B6 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -799,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -808,13 +802,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="H1" s="1"/>
     </row>
@@ -826,13 +820,13 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="3"/>
     </row>

--- a/MerchantNew/ExcelReader/Remit.xlsx
+++ b/MerchantNew/ExcelReader/Remit.xlsx
@@ -2,25 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" date1904="false" showObjects="all"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="540" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="540" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="TestCase" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="TransferMoney" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="AddBeneficiary" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="ValidateTransaction" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="AddRemitter" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="DeleteRemitter" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="TestCase" r:id="rId2" sheetId="1" state="visible"/>
+    <sheet name="TransferMoney" r:id="rId3" sheetId="2" state="visible"/>
+    <sheet name="AddBeneficiary" r:id="rId4" sheetId="3" state="visible"/>
+    <sheet name="ValidateTransaction" r:id="rId5" sheetId="4" state="visible"/>
+    <sheet name="AddRemitter" r:id="rId6" sheetId="5" state="visible"/>
+    <sheet name="DeleteRemitter" r:id="rId7" sheetId="6" state="visible"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterate="false" iterateCount="100" iterateDelta="0.001" refMode="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="41">
   <si>
     <t>TCID</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Adding the Beneficary</t>
   </si>
   <si>
+    <t>Skip</t>
+  </si>
+  <si>
     <t>TransferMoney</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>Amount</t>
   </si>
   <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t>9819042543</t>
   </si>
   <si>
@@ -121,13 +127,22 @@
     <t>Otp</t>
   </si>
   <si>
-    <t>7101000600</t>
+    <t>7101000601</t>
   </si>
   <si>
     <t>Ajinky</t>
   </si>
   <si>
     <t>4516</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Successfully added the remitter</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -196,14 +211,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left style="hair"/>
       <right style="hair"/>
       <top style="hair"/>
@@ -212,75 +227,169 @@
     </border>
   </borders>
   <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="40">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -350,22 +459,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B6"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100">
+      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="17.6836734693878" collapsed="true"/>
+    <col min="2" max="2" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col min="3" max="3" hidden="false" style="0" width="20.1122448979592" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" hidden="false" style="0" width="6.171875" collapsed="true"/>
+    <col min="5" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -382,7 +491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -392,63 +501,74 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>22</v>
+      </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>12</v>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
+      <c r="A5" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -461,23 +581,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="B2:B6 F2"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100">
+      <selection activeCell="F2" activeCellId="1" pane="topLeft" sqref="B2:B6 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" hidden="false" style="0" width="11.953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" hidden="false" style="0" width="6.171875" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -486,42 +609,46 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>22</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -534,27 +661,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="B2:B6 F2"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100">
+      <selection activeCell="F2" activeCellId="1" pane="topLeft" sqref="B2:B6 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4744897959184"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.984693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" hidden="false" style="0" width="27.57421875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" hidden="false" style="0" width="6.171875" collapsed="true"/>
+    <col min="4" max="7" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col min="8" max="8" hidden="false" style="0" width="13.984693877551" collapsed="true"/>
+    <col min="9" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -563,54 +691,58 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>38</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -623,23 +755,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="B2:B6 F2"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100">
+      <selection activeCell="F2" activeCellId="1" pane="topLeft" sqref="B2:B6 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" hidden="false" style="0" width="11.953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" hidden="false" style="0" width="6.171875" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -648,42 +783,46 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>22</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -696,25 +835,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="B2:B6 H2"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100">
+      <selection activeCell="G3" activeCellId="1" pane="topLeft" sqref="B2:B6 G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" hidden="false" style="0" width="11.953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" hidden="false" style="0" width="6.171875" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -723,48 +863,52 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>22</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -777,23 +921,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="B2:B6 F2"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100">
+      <selection activeCell="F2" activeCellId="1" pane="topLeft" sqref="B2:B6 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" hidden="false" style="0" width="11.953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" hidden="false" style="0" width="6.171875" collapsed="true"/>
+    <col min="4" max="1025" hidden="false" style="0" width="11.5204081632653" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -802,38 +949,42 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <printOptions gridLines="false" gridLinesSet="true" headings="false" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
